--- a/data/pca/factorExposure/factorExposure_2016-09-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.006429717439973006</v>
+        <v>-0.01295565299446512</v>
       </c>
       <c r="C2">
-        <v>0.05423657626192435</v>
+        <v>0.04362702468708402</v>
       </c>
       <c r="D2">
-        <v>-0.03432952365782072</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06533094133435766</v>
+      </c>
+      <c r="E2">
+        <v>0.05095426032767292</v>
+      </c>
+      <c r="F2">
+        <v>0.08183238261355463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>-0.0585433599107623</v>
+        <v>-0.03050109732274933</v>
       </c>
       <c r="C3">
-        <v>0.09231544645588342</v>
+        <v>0.08103843554721364</v>
       </c>
       <c r="D3">
-        <v>-0.0810966892827359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09204617541301363</v>
+      </c>
+      <c r="E3">
+        <v>0.05914398593405362</v>
+      </c>
+      <c r="F3">
+        <v>0.01502569816441269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.06100055473404176</v>
+        <v>-0.05693223388945073</v>
       </c>
       <c r="C4">
-        <v>0.0611820926508994</v>
+        <v>0.06670355626270373</v>
       </c>
       <c r="D4">
-        <v>-0.02518066149890141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05978121166588352</v>
+      </c>
+      <c r="E4">
+        <v>0.04904893982939999</v>
+      </c>
+      <c r="F4">
+        <v>0.08783296135656943</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.03566913723051496</v>
+        <v>-0.03402023648744856</v>
       </c>
       <c r="C6">
-        <v>0.03700344924716197</v>
+        <v>0.0340198102349421</v>
       </c>
       <c r="D6">
-        <v>-0.03068532925784472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06766350455534831</v>
+      </c>
+      <c r="E6">
+        <v>0.05909364967133379</v>
+      </c>
+      <c r="F6">
+        <v>0.07251747818517849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01955033687513203</v>
+        <v>-0.01923157610484703</v>
       </c>
       <c r="C7">
-        <v>0.03945748083133207</v>
+        <v>0.03761807603440363</v>
       </c>
       <c r="D7">
-        <v>0.003740486303118652</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03716507847873575</v>
+      </c>
+      <c r="E7">
+        <v>0.03114392201454829</v>
+      </c>
+      <c r="F7">
+        <v>0.1083752211029414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.001898192330578112</v>
+        <v>-0.003703724716962343</v>
       </c>
       <c r="C8">
-        <v>0.02286556434850274</v>
+        <v>0.02762295841133454</v>
       </c>
       <c r="D8">
-        <v>-0.03292237445742147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03632367119320711</v>
+      </c>
+      <c r="E8">
+        <v>0.04116540780983366</v>
+      </c>
+      <c r="F8">
+        <v>0.05122298283841199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03218237657377577</v>
+        <v>-0.03614846279632752</v>
       </c>
       <c r="C9">
-        <v>0.04348663972263058</v>
+        <v>0.05249535584256523</v>
       </c>
       <c r="D9">
-        <v>-0.01309474534856411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04493946507129132</v>
+      </c>
+      <c r="E9">
+        <v>0.04215184944967412</v>
+      </c>
+      <c r="F9">
+        <v>0.09211337105729014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07321684262689153</v>
+        <v>-0.1007261876137566</v>
       </c>
       <c r="C10">
-        <v>-0.1929027219958862</v>
+        <v>-0.193474870869924</v>
       </c>
       <c r="D10">
-        <v>-0.005220983256674304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0005638829981487002</v>
+      </c>
+      <c r="E10">
+        <v>0.0456370460009099</v>
+      </c>
+      <c r="F10">
+        <v>0.0399350889167199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03714799773615336</v>
+        <v>-0.03575816832678254</v>
       </c>
       <c r="C11">
-        <v>0.05535074519542752</v>
+        <v>0.05165857850566166</v>
       </c>
       <c r="D11">
-        <v>-0.006331119123814558</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03416304054303093</v>
+      </c>
+      <c r="E11">
+        <v>0.004971349866528258</v>
+      </c>
+      <c r="F11">
+        <v>0.06644128113297346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03420065529389528</v>
+        <v>-0.0364651023183974</v>
       </c>
       <c r="C12">
-        <v>0.04762486302398744</v>
+        <v>0.04787526201516857</v>
       </c>
       <c r="D12">
-        <v>-0.002367179666632889</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02564371488064014</v>
+      </c>
+      <c r="E12">
+        <v>0.01412936799167597</v>
+      </c>
+      <c r="F12">
+        <v>0.06946799909031337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01129565550252787</v>
+        <v>-0.01201437908812443</v>
       </c>
       <c r="C13">
-        <v>0.04228582810982039</v>
+        <v>0.04157096664763319</v>
       </c>
       <c r="D13">
-        <v>-0.01729425085418334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06277660627489016</v>
+      </c>
+      <c r="E13">
+        <v>0.06103084412030291</v>
+      </c>
+      <c r="F13">
+        <v>0.1139557145656853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.006550079698369831</v>
+        <v>-0.005314383321136718</v>
       </c>
       <c r="C14">
-        <v>0.03247421296792806</v>
+        <v>0.03049695757698806</v>
       </c>
       <c r="D14">
-        <v>0.01580583194703901</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02799806834044285</v>
+      </c>
+      <c r="E14">
+        <v>0.02593503160653234</v>
+      </c>
+      <c r="F14">
+        <v>0.09759419267471671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001149084634162953</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.003095114422356909</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004362442880920634</v>
+      </c>
+      <c r="E15">
+        <v>-6.774304001686743e-05</v>
+      </c>
+      <c r="F15">
+        <v>0.002986773774924415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.03409607091530248</v>
+        <v>-0.03325185720502981</v>
       </c>
       <c r="C16">
-        <v>0.0432839066551916</v>
+        <v>0.04590051077758718</v>
       </c>
       <c r="D16">
-        <v>-0.00710363177632045</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02867606875589622</v>
+      </c>
+      <c r="E16">
+        <v>0.01947454482509806</v>
+      </c>
+      <c r="F16">
+        <v>0.0703829951688443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>-0.02174046537500763</v>
+        <v>-0.01577036415249642</v>
       </c>
       <c r="C19">
-        <v>0.06218696701183969</v>
+        <v>0.05047108598145512</v>
       </c>
       <c r="D19">
-        <v>-0.07138323370466691</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.09694456052799552</v>
+      </c>
+      <c r="E19">
+        <v>0.0783314576510527</v>
+      </c>
+      <c r="F19">
+        <v>0.09156448645699662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01309437046306077</v>
+        <v>-0.01319335583078294</v>
       </c>
       <c r="C20">
-        <v>0.04314489692764837</v>
+        <v>0.04088911035979369</v>
       </c>
       <c r="D20">
-        <v>-0.01834974753842147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04087753639504631</v>
+      </c>
+      <c r="E20">
+        <v>0.05572055698992806</v>
+      </c>
+      <c r="F20">
+        <v>0.08982294692278428</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.008087755572115544</v>
+        <v>-0.008287367089878281</v>
       </c>
       <c r="C21">
-        <v>0.04721050533834699</v>
+        <v>0.04433631479998947</v>
       </c>
       <c r="D21">
-        <v>-0.03582299574289387</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0696098768550816</v>
+      </c>
+      <c r="E21">
+        <v>0.07378925713505601</v>
+      </c>
+      <c r="F21">
+        <v>0.1345759886506084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001575132116859141</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0227398837346086</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03475675845115352</v>
+      </c>
+      <c r="E22">
+        <v>0.01857143666135289</v>
+      </c>
+      <c r="F22">
+        <v>0.0222407668281102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001641293713415393</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02286452217688847</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03444896015235661</v>
+      </c>
+      <c r="E23">
+        <v>0.01885966651270886</v>
+      </c>
+      <c r="F23">
+        <v>0.0221191216161083</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02919000484954945</v>
+        <v>-0.03282659718270453</v>
       </c>
       <c r="C24">
-        <v>0.04895955549540876</v>
+        <v>0.05380533520437978</v>
       </c>
       <c r="D24">
-        <v>-0.00315199306455759</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02717410830255943</v>
+      </c>
+      <c r="E24">
+        <v>0.01697872530549656</v>
+      </c>
+      <c r="F24">
+        <v>0.07939779851445887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.04244438558535178</v>
+        <v>-0.04257411443925335</v>
       </c>
       <c r="C25">
-        <v>0.06052996404548008</v>
+        <v>0.0579178328536878</v>
       </c>
       <c r="D25">
-        <v>0.007045940089199134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02474818970682399</v>
+      </c>
+      <c r="E25">
+        <v>0.01133589734470433</v>
+      </c>
+      <c r="F25">
+        <v>0.08100434715976414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.01207195390622259</v>
+        <v>-0.01383425803161191</v>
       </c>
       <c r="C26">
-        <v>0.01526431036280703</v>
+        <v>0.01643279597288758</v>
       </c>
       <c r="D26">
-        <v>-0.002238361369328139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0266606739995639</v>
+      </c>
+      <c r="E26">
+        <v>0.02878385316860476</v>
+      </c>
+      <c r="F26">
+        <v>0.07492394455620066</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.08702498610968559</v>
+        <v>-0.135733452654398</v>
       </c>
       <c r="C28">
-        <v>-0.2254795930789444</v>
+        <v>-0.2426470674834285</v>
       </c>
       <c r="D28">
-        <v>-0.001226309244920428</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01551475343719003</v>
+      </c>
+      <c r="E28">
+        <v>0.04673102423403631</v>
+      </c>
+      <c r="F28">
+        <v>0.05558677355870346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.007956054695380089</v>
+        <v>-0.006051025283982036</v>
       </c>
       <c r="C29">
-        <v>0.02601594000554789</v>
+        <v>0.02632653445646699</v>
       </c>
       <c r="D29">
-        <v>0.01616045230941814</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02205959001092337</v>
+      </c>
+      <c r="E29">
+        <v>0.02766959329190057</v>
+      </c>
+      <c r="F29">
+        <v>0.08974408323575993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05088799568454552</v>
+        <v>-0.04148037565145115</v>
       </c>
       <c r="C30">
-        <v>0.05720598998009525</v>
+        <v>0.06483019514523909</v>
       </c>
       <c r="D30">
-        <v>-0.05073697688605841</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1075173249626481</v>
+      </c>
+      <c r="E30">
+        <v>0.03982700203673938</v>
+      </c>
+      <c r="F30">
+        <v>0.1052521702845337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.04981497355762714</v>
+        <v>-0.05455321242112581</v>
       </c>
       <c r="C31">
-        <v>0.03235553159495492</v>
+        <v>0.05403576098013526</v>
       </c>
       <c r="D31">
-        <v>0.01283482321472053</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.008795983030529064</v>
+      </c>
+      <c r="E31">
+        <v>0.04883619091121381</v>
+      </c>
+      <c r="F31">
+        <v>0.08284876763831336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.00869053989367388</v>
+        <v>-0.003799162763069039</v>
       </c>
       <c r="C32">
-        <v>0.04453889953320377</v>
+        <v>0.03370812736278735</v>
       </c>
       <c r="D32">
-        <v>-0.02415606555475819</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04975110798983578</v>
+      </c>
+      <c r="E32">
+        <v>0.02206340349197621</v>
+      </c>
+      <c r="F32">
+        <v>0.07439765210352428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.02589823827406595</v>
+        <v>-0.02406912293295613</v>
       </c>
       <c r="C33">
-        <v>0.05880611425154485</v>
+        <v>0.05463025568596849</v>
       </c>
       <c r="D33">
-        <v>-0.03238178398298892</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.08128886851488377</v>
+      </c>
+      <c r="E33">
+        <v>0.04929872936601851</v>
+      </c>
+      <c r="F33">
+        <v>0.1297549568795098</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.04440069271138078</v>
+        <v>-0.04093012966876128</v>
       </c>
       <c r="C34">
-        <v>0.06081870086354591</v>
+        <v>0.0640093933065406</v>
       </c>
       <c r="D34">
-        <v>0.003400580345316605</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.0349789545550478</v>
+      </c>
+      <c r="E34">
+        <v>-0.006632560514772888</v>
+      </c>
+      <c r="F34">
+        <v>0.07741863087988296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.00823937517650087</v>
+        <v>-0.01324044665666506</v>
       </c>
       <c r="C36">
-        <v>0.0142177460587139</v>
+        <v>0.01227504223280639</v>
       </c>
       <c r="D36">
-        <v>-0.0008907084804124465</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02852787312442842</v>
+      </c>
+      <c r="E36">
+        <v>0.03455776695974201</v>
+      </c>
+      <c r="F36">
+        <v>0.08255804659557631</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02759004215374381</v>
+        <v>-0.02412136103604239</v>
       </c>
       <c r="C38">
-        <v>0.02881513115308633</v>
+        <v>0.02491810912556378</v>
       </c>
       <c r="D38">
-        <v>-0.0003754180225579398</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02631477160243418</v>
+      </c>
+      <c r="E38">
+        <v>0.03313548539548714</v>
+      </c>
+      <c r="F38">
+        <v>0.0691685070251216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.03998421880356375</v>
+        <v>-0.03880176598807309</v>
       </c>
       <c r="C39">
-        <v>0.07127709038934482</v>
+        <v>0.06845833572375629</v>
       </c>
       <c r="D39">
-        <v>-0.0204261062688125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05288860075155243</v>
+      </c>
+      <c r="E39">
+        <v>0.01941765919427019</v>
+      </c>
+      <c r="F39">
+        <v>0.09179416733020436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01447117567355244</v>
+        <v>-0.01533782946955692</v>
       </c>
       <c r="C40">
-        <v>0.03630390730255877</v>
+        <v>0.0399147431288873</v>
       </c>
       <c r="D40">
-        <v>-0.03289893612222849</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03864922669513476</v>
+      </c>
+      <c r="E40">
+        <v>0.06886447307069254</v>
+      </c>
+      <c r="F40">
+        <v>0.08862829227473822</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.008588983381981389</v>
+        <v>-0.01742582698258822</v>
       </c>
       <c r="C41">
-        <v>0.009141967698320421</v>
+        <v>0.006501707405673639</v>
       </c>
       <c r="D41">
-        <v>-0.0009655907835507137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01680369401750486</v>
+      </c>
+      <c r="E41">
+        <v>0.03725136596829031</v>
+      </c>
+      <c r="F41">
+        <v>0.0705738801207379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>-0.001604414807963791</v>
+        <v>-0.001114963736499238</v>
       </c>
       <c r="C42">
-        <v>0.005456974476225281</v>
+        <v>0.002927186714748026</v>
       </c>
       <c r="D42">
-        <v>-0.007246025922181936</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.0007694922746814047</v>
+      </c>
+      <c r="E42">
+        <v>0.006714825024901174</v>
+      </c>
+      <c r="F42">
+        <v>-0.005522470260169815</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03169073604343021</v>
+        <v>-0.02876414691775847</v>
       </c>
       <c r="C43">
-        <v>0.02406964733098676</v>
+        <v>0.02137769674993136</v>
       </c>
       <c r="D43">
-        <v>-0.01323486387075778</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04039853997371945</v>
+      </c>
+      <c r="E43">
+        <v>0.04324845173625801</v>
+      </c>
+      <c r="F43">
+        <v>0.08500866617100263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.01734512105742017</v>
+        <v>-0.01363051825501251</v>
       </c>
       <c r="C44">
-        <v>0.05655942637280318</v>
+        <v>0.05256030331743583</v>
       </c>
       <c r="D44">
-        <v>-0.01518364543177848</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03962902939353346</v>
+      </c>
+      <c r="E44">
+        <v>0.05558569543792019</v>
+      </c>
+      <c r="F44">
+        <v>0.09011866510151552</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.001036932703510207</v>
+        <v>-0.007321832003125381</v>
       </c>
       <c r="C46">
-        <v>0.02334880663356546</v>
+        <v>0.02522703093551982</v>
       </c>
       <c r="D46">
-        <v>0.02054216614513345</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0135608758306848</v>
+      </c>
+      <c r="E46">
+        <v>0.03371418426523769</v>
+      </c>
+      <c r="F46">
+        <v>0.1039967471473703</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.08102029859788587</v>
+        <v>-0.086308014262442</v>
       </c>
       <c r="C47">
-        <v>0.07233881869785259</v>
+        <v>0.08017176324773817</v>
       </c>
       <c r="D47">
-        <v>0.008578678644163571</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01670977760306865</v>
+      </c>
+      <c r="E47">
+        <v>0.05436886230946691</v>
+      </c>
+      <c r="F47">
+        <v>0.07994030392566819</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01739143368448267</v>
+        <v>-0.01559828648068358</v>
       </c>
       <c r="C48">
-        <v>0.01247023666806353</v>
+        <v>0.01778985221292499</v>
       </c>
       <c r="D48">
-        <v>0.006852694795287494</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0186211869709183</v>
+      </c>
+      <c r="E48">
+        <v>0.04497657481005095</v>
+      </c>
+      <c r="F48">
+        <v>0.09668919258670745</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.08519086372095565</v>
+        <v>-0.0709550314635657</v>
       </c>
       <c r="C50">
-        <v>0.07081362827179048</v>
+        <v>0.07128561804275213</v>
       </c>
       <c r="D50">
-        <v>0.02050537478160534</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.005621947971680038</v>
+      </c>
+      <c r="E50">
+        <v>0.05156449845109316</v>
+      </c>
+      <c r="F50">
+        <v>0.07515606291328193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01149199068713306</v>
+        <v>-0.01016994468323299</v>
       </c>
       <c r="C51">
-        <v>0.04585192139245425</v>
+        <v>0.03403180598037646</v>
       </c>
       <c r="D51">
-        <v>-0.006878431005051076</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04886825128281747</v>
+      </c>
+      <c r="E51">
+        <v>0.02087065575345161</v>
+      </c>
+      <c r="F51">
+        <v>0.08493013297784409</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.08306563265410775</v>
+        <v>-0.09260799994355069</v>
       </c>
       <c r="C53">
-        <v>0.07308793074829037</v>
+        <v>0.08752619756742128</v>
       </c>
       <c r="D53">
-        <v>0.02704179769560632</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03819973720180602</v>
+      </c>
+      <c r="E53">
+        <v>0.05294068087608998</v>
+      </c>
+      <c r="F53">
+        <v>0.0901632857625573</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.03190850921050493</v>
+        <v>-0.02777625623332323</v>
       </c>
       <c r="C54">
-        <v>0.02175293929454919</v>
+        <v>0.02675130526422044</v>
       </c>
       <c r="D54">
-        <v>-0.001117767856075862</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03213228157155557</v>
+      </c>
+      <c r="E54">
+        <v>0.04011797132184481</v>
+      </c>
+      <c r="F54">
+        <v>0.09691259655863062</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.07318813763586862</v>
+        <v>-0.08384747568290332</v>
       </c>
       <c r="C55">
-        <v>0.06446182998719063</v>
+        <v>0.07170930673021891</v>
       </c>
       <c r="D55">
-        <v>0.0310935247668997</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04553303649133688</v>
+      </c>
+      <c r="E55">
+        <v>0.04387899663880249</v>
+      </c>
+      <c r="F55">
+        <v>0.06634865579192291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1491194985147929</v>
+        <v>-0.1448726744148665</v>
       </c>
       <c r="C56">
-        <v>0.09319611617954</v>
+        <v>0.1062836607671223</v>
       </c>
       <c r="D56">
-        <v>0.03436687905076613</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04851425247011535</v>
+      </c>
+      <c r="E56">
+        <v>0.04699103656700041</v>
+      </c>
+      <c r="F56">
+        <v>0.0506751024131427</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>-0.0008660276908572415</v>
+        <v>-0.0001865763047368878</v>
       </c>
       <c r="C57">
-        <v>0.003284616554238099</v>
+        <v>0.001888329369928506</v>
       </c>
       <c r="D57">
-        <v>-0.01839545102545216</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01622998457237433</v>
+      </c>
+      <c r="E57">
+        <v>0.007631091995089096</v>
+      </c>
+      <c r="F57">
+        <v>0.01109670318916378</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.07189740663712005</v>
+        <v>-0.02777192619911849</v>
       </c>
       <c r="C58">
-        <v>0.02379192913003372</v>
+        <v>0.04106595466087441</v>
       </c>
       <c r="D58">
-        <v>-0.9347475335446495</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4897196945692844</v>
+      </c>
+      <c r="E58">
+        <v>0.6901184431429559</v>
+      </c>
+      <c r="F58">
+        <v>-0.4537789239957876</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1367452823074939</v>
+        <v>-0.1476706161959571</v>
       </c>
       <c r="C59">
-        <v>-0.2039590997783865</v>
+        <v>-0.186240771472191</v>
       </c>
       <c r="D59">
-        <v>-0.01538940265294794</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03164443790736478</v>
+      </c>
+      <c r="E59">
+        <v>0.02570848981449612</v>
+      </c>
+      <c r="F59">
+        <v>0.02225461458804411</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.3118018026595201</v>
+        <v>-0.2832144941255806</v>
       </c>
       <c r="C60">
-        <v>0.0953083093016866</v>
+        <v>0.09899154381915769</v>
       </c>
       <c r="D60">
-        <v>-0.01130544007066778</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2035780014298697</v>
+      </c>
+      <c r="E60">
+        <v>-0.2741321606459698</v>
+      </c>
+      <c r="F60">
+        <v>-0.1154973459904851</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03834750008084047</v>
+        <v>-0.03992298282337951</v>
       </c>
       <c r="C61">
-        <v>0.06451081683493869</v>
+        <v>0.06281748486470652</v>
       </c>
       <c r="D61">
-        <v>-0.01112940260519887</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04652620635849463</v>
+      </c>
+      <c r="E61">
+        <v>0.02244524452643103</v>
+      </c>
+      <c r="F61">
+        <v>0.08264919980112677</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01460761310184323</v>
+        <v>-0.01492621884695092</v>
       </c>
       <c r="C63">
-        <v>0.035711778907829</v>
+        <v>0.03249916187199513</v>
       </c>
       <c r="D63">
-        <v>0.001342493923518064</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02363040371208118</v>
+      </c>
+      <c r="E63">
+        <v>0.03746142870346583</v>
+      </c>
+      <c r="F63">
+        <v>0.07772969533115896</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.05176139010088406</v>
+        <v>-0.05511279459412297</v>
       </c>
       <c r="C64">
-        <v>0.03703765338079455</v>
+        <v>0.05401233540861042</v>
       </c>
       <c r="D64">
-        <v>0.01030916775268756</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006635703976397402</v>
+      </c>
+      <c r="E64">
+        <v>0.01990262489902953</v>
+      </c>
+      <c r="F64">
+        <v>0.08581203292440762</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.09529469313842902</v>
+        <v>-0.06705908746850935</v>
       </c>
       <c r="C65">
-        <v>0.03855745911491296</v>
+        <v>0.03758977395455529</v>
       </c>
       <c r="D65">
-        <v>-0.04051397876506672</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.08596370510189053</v>
+      </c>
+      <c r="E65">
+        <v>0.03293637213602216</v>
+      </c>
+      <c r="F65">
+        <v>0.0205690910184938</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.06104728890017433</v>
+        <v>-0.05101093482818859</v>
       </c>
       <c r="C66">
-        <v>0.1040324998652317</v>
+        <v>0.09144725593852882</v>
       </c>
       <c r="D66">
-        <v>-0.03267335628115267</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.08022417384332534</v>
+      </c>
+      <c r="E66">
+        <v>0.02216137311499408</v>
+      </c>
+      <c r="F66">
+        <v>0.09425381300605758</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0497570796020281</v>
+        <v>-0.04624328180274771</v>
       </c>
       <c r="C67">
-        <v>0.03392979180686864</v>
+        <v>0.03079990876274935</v>
       </c>
       <c r="D67">
-        <v>0.005803222476460234</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0123536116611196</v>
+      </c>
+      <c r="E67">
+        <v>0.01610606343620895</v>
+      </c>
+      <c r="F67">
+        <v>0.0541092808540181</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1163590449036369</v>
+        <v>-0.1528428836064942</v>
       </c>
       <c r="C68">
-        <v>-0.2886038448777409</v>
+        <v>-0.2512679498308273</v>
       </c>
       <c r="D68">
-        <v>0.001733201623336229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01750487816747824</v>
+      </c>
+      <c r="E68">
+        <v>0.04247592112728784</v>
+      </c>
+      <c r="F68">
+        <v>0.01788036063806384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0835674565633799</v>
+        <v>-0.08573642549916563</v>
       </c>
       <c r="C69">
-        <v>0.06978662951068167</v>
+        <v>0.08696764583958183</v>
       </c>
       <c r="D69">
-        <v>0.03488406940140321</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01246478776032079</v>
+      </c>
+      <c r="E69">
+        <v>0.03061350019284336</v>
+      </c>
+      <c r="F69">
+        <v>0.09608856490447043</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1181016828746365</v>
+        <v>-0.1448199772248341</v>
       </c>
       <c r="C71">
-        <v>-0.2495876036843229</v>
+        <v>-0.2323726386295031</v>
       </c>
       <c r="D71">
-        <v>-0.02444131799561499</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01620351498459387</v>
+      </c>
+      <c r="E71">
+        <v>0.06119752534566724</v>
+      </c>
+      <c r="F71">
+        <v>0.05687235353093797</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.08391899260780541</v>
+        <v>-0.09552895446763392</v>
       </c>
       <c r="C72">
-        <v>0.05032988979179281</v>
+        <v>0.05783234817092828</v>
       </c>
       <c r="D72">
-        <v>0.01157876591114243</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01945127582573317</v>
+      </c>
+      <c r="E72">
+        <v>0.00907020873983605</v>
+      </c>
+      <c r="F72">
+        <v>0.08142434489063752</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.4385955943145463</v>
+        <v>-0.3468898782506782</v>
       </c>
       <c r="C73">
-        <v>0.06002421341779648</v>
+        <v>0.07829566107129587</v>
       </c>
       <c r="D73">
-        <v>-0.0906927554813662</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4320451195284796</v>
+      </c>
+      <c r="E73">
+        <v>-0.4835135683932539</v>
+      </c>
+      <c r="F73">
+        <v>-0.2926204067940071</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1119801120782827</v>
+        <v>-0.1103895859425684</v>
       </c>
       <c r="C74">
-        <v>0.1087970733729257</v>
+        <v>0.101037521239085</v>
       </c>
       <c r="D74">
-        <v>0.007176668692091196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02857065742782916</v>
+      </c>
+      <c r="E74">
+        <v>0.06231603594198265</v>
+      </c>
+      <c r="F74">
+        <v>0.05736312461199451</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.2504163652348475</v>
+        <v>-0.2551183090396934</v>
       </c>
       <c r="C75">
-        <v>0.1192076007040929</v>
+        <v>0.1383275675066305</v>
       </c>
       <c r="D75">
-        <v>0.0491732883780017</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1276678185635642</v>
+      </c>
+      <c r="E75">
+        <v>0.07325384119394499</v>
+      </c>
+      <c r="F75">
+        <v>0.01535881684961791</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.1135650813106092</v>
+        <v>-0.1276957602469779</v>
       </c>
       <c r="C76">
-        <v>0.09214262877746116</v>
+        <v>0.1031464941543327</v>
       </c>
       <c r="D76">
-        <v>0.02624582754406529</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05691847480205763</v>
+      </c>
+      <c r="E76">
+        <v>0.06706520711592236</v>
+      </c>
+      <c r="F76">
+        <v>0.07175433492153811</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07624705504974655</v>
+        <v>-0.0616076301651876</v>
       </c>
       <c r="C77">
-        <v>0.05706572953924236</v>
+        <v>0.06963859445405009</v>
       </c>
       <c r="D77">
-        <v>-0.05142535239140359</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06527357676951596</v>
+      </c>
+      <c r="E77">
+        <v>0.06628090887651041</v>
+      </c>
+      <c r="F77">
+        <v>0.116182604303762</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.04526876111094072</v>
+        <v>-0.04357956668203763</v>
       </c>
       <c r="C78">
-        <v>0.04419809792891619</v>
+        <v>0.05515483941653416</v>
       </c>
       <c r="D78">
-        <v>-0.01526423109973821</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07243836874020376</v>
+      </c>
+      <c r="E78">
+        <v>0.02097398918973675</v>
+      </c>
+      <c r="F78">
+        <v>0.1042650661481158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02454654564644555</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03827173966096672</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05935328397892735</v>
+      </c>
+      <c r="E79">
+        <v>0.05191291999109622</v>
+      </c>
+      <c r="F79">
+        <v>0.04160368558784235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0455927219058005</v>
+        <v>-0.03412873415254088</v>
       </c>
       <c r="C80">
-        <v>0.05706066704821854</v>
+        <v>0.055609060922762</v>
       </c>
       <c r="D80">
-        <v>-0.02548579227688392</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04758363069639594</v>
+      </c>
+      <c r="E80">
+        <v>0.009346577054061092</v>
+      </c>
+      <c r="F80">
+        <v>0.03635274983196927</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1419491614437122</v>
+        <v>-0.1394671946642396</v>
       </c>
       <c r="C81">
-        <v>0.07559837826543406</v>
+        <v>0.09798307056340311</v>
       </c>
       <c r="D81">
-        <v>0.02393696835705788</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09421472206241707</v>
+      </c>
+      <c r="E81">
+        <v>0.08164687785246225</v>
+      </c>
+      <c r="F81">
+        <v>0.02132867724056881</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1367506451927892</v>
+        <v>-0.1977925431883762</v>
       </c>
       <c r="C82">
-        <v>0.05779789138711345</v>
+        <v>0.1386816148669225</v>
       </c>
       <c r="D82">
-        <v>0.1191481062292602</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2261235172346898</v>
+      </c>
+      <c r="E82">
+        <v>0.01909240249158703</v>
+      </c>
+      <c r="F82">
+        <v>0.08382533417150168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02775357433087339</v>
+        <v>-0.02713043915945356</v>
       </c>
       <c r="C83">
-        <v>0.02001794065392288</v>
+        <v>0.04046139562146205</v>
       </c>
       <c r="D83">
-        <v>-0.0159184806943133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03576541392462704</v>
+      </c>
+      <c r="E83">
+        <v>0.008898934391743787</v>
+      </c>
+      <c r="F83">
+        <v>0.04931618421761318</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.2263435576319741</v>
+        <v>-0.2038774270404749</v>
       </c>
       <c r="C85">
-        <v>0.1075749232915233</v>
+        <v>0.1227557422637599</v>
       </c>
       <c r="D85">
-        <v>0.09148134347972699</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1023805783477544</v>
+      </c>
+      <c r="E85">
+        <v>0.004657762883566957</v>
+      </c>
+      <c r="F85">
+        <v>-0.01647912092254045</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.004644290400573561</v>
+        <v>-0.01206964594985529</v>
       </c>
       <c r="C86">
-        <v>0.02436111647144331</v>
+        <v>0.03009478603342952</v>
       </c>
       <c r="D86">
-        <v>-0.02635825809009807</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07119256346187096</v>
+      </c>
+      <c r="E86">
+        <v>0.04223267184830871</v>
+      </c>
+      <c r="F86">
+        <v>0.1372578417203451</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.01800567861365676</v>
+        <v>-0.02104986853374787</v>
       </c>
       <c r="C87">
-        <v>0.01574521236511483</v>
+        <v>0.02178279852992272</v>
       </c>
       <c r="D87">
-        <v>-0.09046508490941649</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09272654074563212</v>
+      </c>
+      <c r="E87">
+        <v>0.08724786762138505</v>
+      </c>
+      <c r="F87">
+        <v>0.09528947233278484</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.1053762130365834</v>
+        <v>-0.09087091907645456</v>
       </c>
       <c r="C88">
-        <v>0.0696365557643025</v>
+        <v>0.06336724471559675</v>
       </c>
       <c r="D88">
-        <v>0.01554536311515152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01157781139536106</v>
+      </c>
+      <c r="E88">
+        <v>0.03484021467197024</v>
+      </c>
+      <c r="F88">
+        <v>0.07253335855605485</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1801897008205799</v>
+        <v>-0.2259523910565062</v>
       </c>
       <c r="C89">
-        <v>-0.3740786848843964</v>
+        <v>-0.3775858459334239</v>
       </c>
       <c r="D89">
-        <v>0.02596913036328312</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.015020064771853</v>
+      </c>
+      <c r="E89">
+        <v>0.0402774438467309</v>
+      </c>
+      <c r="F89">
+        <v>0.09716935934328301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1761326373454394</v>
+        <v>-0.2042209578096902</v>
       </c>
       <c r="C90">
-        <v>-0.3473972922138072</v>
+        <v>-0.314329984925864</v>
       </c>
       <c r="D90">
-        <v>0.01054066628848477</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01241413627049152</v>
+      </c>
+      <c r="E90">
+        <v>0.06681302113815234</v>
+      </c>
+      <c r="F90">
+        <v>0.04640065727436221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1938370634477297</v>
+        <v>-0.1858594224384173</v>
       </c>
       <c r="C91">
-        <v>0.1144658050589758</v>
+        <v>0.1408506034997032</v>
       </c>
       <c r="D91">
-        <v>0.05107493509960844</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1044889008134031</v>
+      </c>
+      <c r="E91">
+        <v>0.06488457608931963</v>
+      </c>
+      <c r="F91">
+        <v>0.03663380881812922</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1700621223236113</v>
+        <v>-0.1835356931983377</v>
       </c>
       <c r="C92">
-        <v>-0.2913632860199967</v>
+        <v>-0.2790410177716446</v>
       </c>
       <c r="D92">
-        <v>0.01365876134229383</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.00308994108425063</v>
+      </c>
+      <c r="E92">
+        <v>0.07123162407493459</v>
+      </c>
+      <c r="F92">
+        <v>0.08041694259519253</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.2025879472582283</v>
+        <v>-0.2284062539177308</v>
       </c>
       <c r="C93">
-        <v>-0.3356069983410408</v>
+        <v>-0.3181561385924421</v>
       </c>
       <c r="D93">
-        <v>0.003076709454893085</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0003606566598907189</v>
+      </c>
+      <c r="E93">
+        <v>0.05169659375820171</v>
+      </c>
+      <c r="F93">
+        <v>0.04524840548933402</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.3163594469341681</v>
+        <v>-0.3405611345811904</v>
       </c>
       <c r="C94">
-        <v>0.1735081265674846</v>
+        <v>0.1911348811103847</v>
       </c>
       <c r="D94">
-        <v>0.1891571305191323</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4752084438580467</v>
+      </c>
+      <c r="E94">
+        <v>0.1515630984812141</v>
+      </c>
+      <c r="F94">
+        <v>-0.4441861972828396</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.09519043077353011</v>
+        <v>-0.0836050561552536</v>
       </c>
       <c r="C95">
-        <v>0.06490808645815153</v>
+        <v>0.06906317239351688</v>
       </c>
       <c r="D95">
-        <v>-0.03947619302298634</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1578418076634416</v>
+      </c>
+      <c r="E95">
+        <v>-0.1271863098603444</v>
+      </c>
+      <c r="F95">
+        <v>0.1681589815869677</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1944170061926896</v>
+        <v>-0.1884139705489283</v>
       </c>
       <c r="C98">
-        <v>0.01543102813860014</v>
+        <v>0.04160615605352656</v>
       </c>
       <c r="D98">
-        <v>-0.04962145376408302</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1765340008103936</v>
+      </c>
+      <c r="E98">
+        <v>-0.1569505970883821</v>
+      </c>
+      <c r="F98">
+        <v>-0.04318963619686532</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.007862129730666679</v>
+        <v>-0.006065445410439769</v>
       </c>
       <c r="C101">
-        <v>0.02602810820232057</v>
+        <v>0.0260974292472122</v>
       </c>
       <c r="D101">
-        <v>0.0162938764796776</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02150283210075458</v>
+      </c>
+      <c r="E101">
+        <v>0.02829178996579767</v>
+      </c>
+      <c r="F101">
+        <v>0.08948028845522328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>-0.1229475409596528</v>
+        <v>-0.1235224321777943</v>
       </c>
       <c r="C102">
-        <v>0.07490058701998847</v>
+        <v>0.1001897594631455</v>
       </c>
       <c r="D102">
-        <v>0.03147348406953798</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05085556394565798</v>
+      </c>
+      <c r="E102">
+        <v>-0.007583058684066096</v>
+      </c>
+      <c r="F102">
+        <v>0.03954085583389065</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
